--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicus\Documents\AnkeNaratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankef\Documents\Modules 2024\INF 370\Iteration 5\Diagrams\Sequence\AnkeNaratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D1FC5-AE5B-4441-A477-C02945842416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFD8075-A0D3-4D77-A9CD-EE6431B54196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Process</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>PlantUML Complete</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,14 +138,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,18 +438,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +459,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -453,90 +471,107 @@
         <v>16</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicus\Documents\AnkeNaratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D1FC5-AE5B-4441-A477-C02945842416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA8B87-E3DD-4688-9B3B-3F2E4C0358AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Process</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>PlantUML Complete</t>
+  </si>
+  <si>
+    <t>Fix Activation Buttons</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +111,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,10 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +443,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,23 +466,29 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
